--- a/instructions_spreadsheets/hist_marks_instructions.xlsx
+++ b/instructions_spreadsheets/hist_marks_instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunfundere\Downloads\instructions_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51499BB-B16E-EF45-B832-06E9B657777B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FBB283-9D81-48DD-8EA8-72264D0CBD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{43A4895C-B8A2-9E46-A44B-7480B88791E4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43A4895C-B8A2-9E46-A44B-7480B88791E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,40 +110,40 @@
     <t>chromHMM_dir</t>
   </si>
   <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/dendritic_cells/ENCFF022ZIV.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/monocytes/ENCFF269WBG.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/b_mem_cells/ENCFF476DBW.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/b_nai_cells/ENCFF478AZW.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/act_cd4_cells/ENCFF342HTO.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/act_cd8_cells/ENCFF555HRT.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/cd4_nai_cells/ENCFF462ZAZ.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/cd4_reg_cells/ENCFF255WPS.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/cd8_nai_cells/ENCFF890OEH.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/cd8_mem_cells/ENCFF358UZU.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/chromHMM_data/ChromHMM/nk_cells/ENCFF953PSB.txt</t>
-  </si>
-  <si>
     <t>cyto_cd8_t</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/dendritic_cells/ENCFF022ZIV.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/monocytes/ENCFF269WBG.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/b_mem_cells/ENCFF476DBW.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/b_nai_cells/ENCFF478AZW.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/act_cd4_cells/ENCFF342HTO.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/act_cd8_cells/ENCFF555HRT.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/cd4_nai_cells/ENCFF462ZAZ.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/cd4_reg_cells/ENCFF255WPS.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/cd8_nai_cells/ENCFF890OEH.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/cd8_mem_cells/ENCFF358UZU.bed</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/ChromHMM/nk_cells/ENCFF953PSB.bed</t>
   </si>
 </sst>
 </file>
@@ -518,18 +518,18 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="134.5" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -540,9 +540,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -551,9 +551,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -562,9 +562,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -573,9 +573,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -584,9 +584,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -595,20 +595,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -617,9 +617,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -628,9 +628,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -639,9 +639,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -650,9 +650,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
